--- a/ResultadoEleicoesDistritos/COIMBRA_ARGANIL.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_ARGANIL.xlsx
@@ -597,64 +597,64 @@
         <v>2941</v>
       </c>
       <c r="H2" t="n">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J2" t="n">
-        <v>1237</v>
+        <v>1220</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" t="n">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="S2" t="n">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="T2" t="n">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="U2" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="V2" t="n">
-        <v>1898</v>
+        <v>1912</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>1822</v>
+        <v>1859</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
